--- a/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet\Sprint 1\Package 1\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="tblMode" sheetId="11" r:id="rId1"/>
-    <sheet name="C tblSysExp" sheetId="3" r:id="rId2"/>
+    <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
+    <sheet name="C tblCategorie" sheetId="14" r:id="rId2"/>
     <sheet name="C tblTheme" sheetId="4" r:id="rId3"/>
     <sheet name="C tblClassification" sheetId="1" r:id="rId4"/>
     <sheet name="C tblMode" sheetId="5" r:id="rId5"/>
     <sheet name="C tblGenre" sheetId="2" r:id="rId6"/>
-    <sheet name="B tblJeu" sheetId="6" r:id="rId7"/>
-    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId8"/>
-    <sheet name="tblVersion" sheetId="10" r:id="rId9"/>
-    <sheet name="tblJeuSemblable" sheetId="12" r:id="rId10"/>
-    <sheet name="tblPlateformeJeu" sheetId="13" r:id="rId11"/>
-    <sheet name="C tblCategorie" sheetId="14" r:id="rId12"/>
-    <sheet name="tblPlateforme" sheetId="15" r:id="rId13"/>
+    <sheet name="B tblPlateforme" sheetId="15" r:id="rId7"/>
+    <sheet name="B tblJeu" sheetId="6" r:id="rId8"/>
+    <sheet name="C tblPlateformeSysExp" sheetId="16" r:id="rId9"/>
+    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId10"/>
+    <sheet name="tblVersion" sheetId="10" r:id="rId11"/>
+    <sheet name="tblJeuSemblable" sheetId="12" r:id="rId12"/>
+    <sheet name="B tblPlateformeJeu" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="819">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2484,6 +2479,15 @@
   </si>
   <si>
     <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Jeux créatifs</t>
+  </si>
+  <si>
+    <t>RPG FPS</t>
+  </si>
+  <si>
+    <t>IdSysExp</t>
   </si>
 </sst>
 </file>
@@ -3012,7 +3016,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3020,1367 +3024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="106.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>12</v>
-      </c>
-      <c r="B36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>15</v>
-      </c>
-      <c r="B44">
-        <v>16</v>
-      </c>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>16</v>
-      </c>
-      <c r="B45">
-        <v>15</v>
-      </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>16</v>
-      </c>
-      <c r="C46" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>673</v>
-      </c>
-      <c r="B3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>675</v>
-      </c>
-      <c r="B4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B5" t="s">
-        <v>678</v>
-      </c>
-      <c r="C5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>680</v>
-      </c>
-      <c r="B6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" customWidth="1"/>
-    <col min="13" max="13" width="52.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H2" t="s">
-        <v>700</v>
-      </c>
-      <c r="I2" t="s">
-        <v>701</v>
-      </c>
-      <c r="K2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="E3" t="s">
-        <v>705</v>
-      </c>
-      <c r="F3" t="s">
-        <v>706</v>
-      </c>
-      <c r="G3" t="s">
-        <v>707</v>
-      </c>
-      <c r="H3" t="s">
-        <v>708</v>
-      </c>
-      <c r="I3" t="s">
-        <v>709</v>
-      </c>
-      <c r="K3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D4" t="s">
-        <v>712</v>
-      </c>
-      <c r="E4" t="s">
-        <v>713</v>
-      </c>
-      <c r="F4" t="s">
-        <v>714</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="H4" t="s">
-        <v>716</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="K4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5" t="s">
-        <v>719</v>
-      </c>
-      <c r="D5" t="s">
-        <v>720</v>
-      </c>
-      <c r="E5" t="s">
-        <v>721</v>
-      </c>
-      <c r="F5" t="s">
-        <v>722</v>
-      </c>
-      <c r="G5" t="s">
-        <v>723</v>
-      </c>
-      <c r="H5" t="s">
-        <v>724</v>
-      </c>
-      <c r="I5" t="s">
-        <v>725</v>
-      </c>
-      <c r="K5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C6" t="s">
-        <v>726</v>
-      </c>
-      <c r="D6" t="s">
-        <v>727</v>
-      </c>
-      <c r="E6" t="s">
-        <v>728</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="H6" t="s">
-        <v>731</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="K6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>733</v>
-      </c>
-      <c r="C7" t="s">
-        <v>734</v>
-      </c>
-      <c r="D7" t="s">
-        <v>735</v>
-      </c>
-      <c r="E7" t="s">
-        <v>736</v>
-      </c>
-      <c r="F7" t="s">
-        <v>737</v>
-      </c>
-      <c r="G7" t="s">
-        <v>738</v>
-      </c>
-      <c r="H7" t="s">
-        <v>739</v>
-      </c>
-      <c r="I7" t="s">
-        <v>740</v>
-      </c>
-      <c r="K7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C8" t="s">
-        <v>741</v>
-      </c>
-      <c r="D8" t="s">
-        <v>742</v>
-      </c>
-      <c r="E8" t="s">
-        <v>743</v>
-      </c>
-      <c r="F8" t="s">
-        <v>737</v>
-      </c>
-      <c r="G8" t="s">
-        <v>744</v>
-      </c>
-      <c r="H8" t="s">
-        <v>745</v>
-      </c>
-      <c r="I8" t="s">
-        <v>740</v>
-      </c>
-      <c r="K8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>733</v>
-      </c>
-      <c r="C9" t="s">
-        <v>746</v>
-      </c>
-      <c r="D9" t="s">
-        <v>742</v>
-      </c>
-      <c r="E9" t="s">
-        <v>743</v>
-      </c>
-      <c r="F9" t="s">
-        <v>737</v>
-      </c>
-      <c r="G9" t="s">
-        <v>744</v>
-      </c>
-      <c r="H9" t="s">
-        <v>747</v>
-      </c>
-      <c r="I9" t="s">
-        <v>740</v>
-      </c>
-      <c r="K9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>733</v>
-      </c>
-      <c r="C10" t="s">
-        <v>748</v>
-      </c>
-      <c r="D10" t="s">
-        <v>735</v>
-      </c>
-      <c r="E10" t="s">
-        <v>749</v>
-      </c>
-      <c r="F10" t="s">
-        <v>737</v>
-      </c>
-      <c r="G10" t="s">
-        <v>738</v>
-      </c>
-      <c r="H10" t="s">
-        <v>750</v>
-      </c>
-      <c r="I10" t="s">
-        <v>697</v>
-      </c>
-      <c r="K10" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>751</v>
-      </c>
-      <c r="C11" t="s">
-        <v>752</v>
-      </c>
-      <c r="D11" t="s">
-        <v>753</v>
-      </c>
-      <c r="E11" t="s">
-        <v>754</v>
-      </c>
-      <c r="F11" t="s">
-        <v>755</v>
-      </c>
-      <c r="G11" t="s">
-        <v>729</v>
-      </c>
-      <c r="H11" t="s">
-        <v>756</v>
-      </c>
-      <c r="I11" t="s">
-        <v>697</v>
-      </c>
-      <c r="K11" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>757</v>
-      </c>
-      <c r="D12" t="s">
-        <v>758</v>
-      </c>
-      <c r="E12" t="s">
-        <v>759</v>
-      </c>
-      <c r="F12" t="s">
-        <v>760</v>
-      </c>
-      <c r="G12" t="s">
-        <v>761</v>
-      </c>
-      <c r="H12" t="s">
-        <v>762</v>
-      </c>
-      <c r="I12" t="s">
-        <v>763</v>
-      </c>
-      <c r="K12" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>764</v>
-      </c>
-      <c r="C13" t="s">
-        <v>765</v>
-      </c>
-      <c r="D13" t="s">
-        <v>766</v>
-      </c>
-      <c r="E13" t="s">
-        <v>767</v>
-      </c>
-      <c r="F13" t="s">
-        <v>768</v>
-      </c>
-      <c r="G13" t="s">
-        <v>769</v>
-      </c>
-      <c r="H13" t="s">
-        <v>770</v>
-      </c>
-      <c r="I13" t="s">
-        <v>697</v>
-      </c>
-      <c r="K13" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>771</v>
-      </c>
-      <c r="C14" t="s">
-        <v>772</v>
-      </c>
-      <c r="D14" t="s">
-        <v>773</v>
-      </c>
-      <c r="E14" t="s">
-        <v>774</v>
-      </c>
-      <c r="F14" t="s">
-        <v>775</v>
-      </c>
-      <c r="G14" t="s">
-        <v>776</v>
-      </c>
-      <c r="H14" t="s">
-        <v>777</v>
-      </c>
-      <c r="I14" t="s">
-        <v>697</v>
-      </c>
-      <c r="K14" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>778</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" t="s">
-        <v>779</v>
-      </c>
-      <c r="E15" t="s">
-        <v>780</v>
-      </c>
-      <c r="F15" t="s">
-        <v>781</v>
-      </c>
-      <c r="G15" t="s">
-        <v>769</v>
-      </c>
-      <c r="H15" t="s">
-        <v>782</v>
-      </c>
-      <c r="I15" t="s">
-        <v>697</v>
-      </c>
-      <c r="K15" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>783</v>
-      </c>
-      <c r="C16" t="s">
-        <v>784</v>
-      </c>
-      <c r="D16" t="s">
-        <v>785</v>
-      </c>
-      <c r="E16" t="s">
-        <v>786</v>
-      </c>
-      <c r="F16" t="s">
-        <v>787</v>
-      </c>
-      <c r="G16" t="s">
-        <v>788</v>
-      </c>
-      <c r="H16" t="s">
-        <v>789</v>
-      </c>
-      <c r="I16" t="s">
-        <v>697</v>
-      </c>
-      <c r="K16" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>790</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" t="s">
-        <v>791</v>
-      </c>
-      <c r="E17" t="s">
-        <v>792</v>
-      </c>
-      <c r="F17" t="s">
-        <v>793</v>
-      </c>
-      <c r="G17" t="s">
-        <v>794</v>
-      </c>
-      <c r="H17" t="s">
-        <v>795</v>
-      </c>
-      <c r="I17" t="s">
-        <v>697</v>
-      </c>
-      <c r="K17" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>796</v>
-      </c>
-      <c r="C18" t="s">
-        <v>796</v>
-      </c>
-      <c r="D18" t="s">
-        <v>797</v>
-      </c>
-      <c r="E18" t="s">
-        <v>798</v>
-      </c>
-      <c r="F18" t="s">
-        <v>799</v>
-      </c>
-      <c r="G18" t="s">
-        <v>800</v>
-      </c>
-      <c r="H18" t="s">
-        <v>801</v>
-      </c>
-      <c r="K18" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C19" t="s">
-        <v>803</v>
-      </c>
-      <c r="D19" t="s">
-        <v>804</v>
-      </c>
-      <c r="E19" t="s">
-        <v>805</v>
-      </c>
-      <c r="F19" t="s">
-        <v>806</v>
-      </c>
-      <c r="G19" t="s">
-        <v>807</v>
-      </c>
-      <c r="H19" t="s">
-        <v>808</v>
-      </c>
-      <c r="I19" t="s">
-        <v>697</v>
-      </c>
-      <c r="K19" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" t="s">
-        <v>813</v>
-      </c>
-      <c r="M20" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>809</v>
-      </c>
-      <c r="E27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F27" t="s">
-        <v>811</v>
-      </c>
-      <c r="G27" t="s">
-        <v>812</v>
-      </c>
-      <c r="I27" t="s">
-        <v>814</v>
-      </c>
-      <c r="K27" t="s">
-        <v>680</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="F61" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5817,12 +4464,1672 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>288</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>320</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>288</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>288</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>288</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>163</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>163</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>296</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>296</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>296</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>296</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>296</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>296</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2">
+        <v>20140214</v>
+      </c>
+      <c r="F2">
+        <v>20151212</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3">
+        <v>20150720</v>
+      </c>
+      <c r="F3">
+        <v>20151212</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4">
+        <v>20130916</v>
+      </c>
+      <c r="F4">
+        <v>20140320</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5">
+        <v>20140101</v>
+      </c>
+      <c r="F5">
+        <v>20140320</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E6">
+        <v>20140220</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>666</v>
+      </c>
+      <c r="K6" t="s">
+        <v>579</v>
+      </c>
+      <c r="L6">
+        <v>20140320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7">
+        <v>20111215</v>
+      </c>
+      <c r="F7">
+        <v>20121112</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8">
+        <v>20120210</v>
+      </c>
+      <c r="F8">
+        <v>20121112</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9">
+        <v>20120620</v>
+      </c>
+      <c r="F9">
+        <v>20121112</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10">
+        <v>20111215</v>
+      </c>
+      <c r="F10">
+        <v>20121112</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E11">
+        <v>20120210</v>
+      </c>
+      <c r="F11">
+        <v>20121112</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" t="s">
+        <v>597</v>
+      </c>
+      <c r="D12" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12">
+        <v>20120620</v>
+      </c>
+      <c r="F12">
+        <v>20121112</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D13" t="s">
+        <v>566</v>
+      </c>
+      <c r="E13">
+        <v>20111215</v>
+      </c>
+      <c r="F13">
+        <v>20121112</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" t="s">
+        <v>570</v>
+      </c>
+      <c r="E14">
+        <v>20120210</v>
+      </c>
+      <c r="F14">
+        <v>20121112</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15">
+        <v>20120620</v>
+      </c>
+      <c r="F15">
+        <v>20121112</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" t="s">
+        <v>570</v>
+      </c>
+      <c r="E16">
+        <v>20130105</v>
+      </c>
+      <c r="F16">
+        <v>20140530</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" t="s">
+        <v>570</v>
+      </c>
+      <c r="E17">
+        <v>20140110</v>
+      </c>
+      <c r="F17">
+        <v>20140530</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" t="s">
+        <v>570</v>
+      </c>
+      <c r="E18">
+        <v>20130105</v>
+      </c>
+      <c r="F18">
+        <v>20140530</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>616</v>
+      </c>
+      <c r="B19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" t="s">
+        <v>618</v>
+      </c>
+      <c r="D19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E19">
+        <v>20140110</v>
+      </c>
+      <c r="F19">
+        <v>20140530</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>619</v>
+      </c>
+      <c r="B20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E20">
+        <v>20130105</v>
+      </c>
+      <c r="F20">
+        <v>20140530</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" t="s">
+        <v>624</v>
+      </c>
+      <c r="C21" t="s">
+        <v>625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>570</v>
+      </c>
+      <c r="E21">
+        <v>20140110</v>
+      </c>
+      <c r="F21">
+        <v>20140530</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" t="s">
+        <v>628</v>
+      </c>
+      <c r="D22" t="s">
+        <v>566</v>
+      </c>
+      <c r="E22">
+        <v>20001103</v>
+      </c>
+      <c r="F22">
+        <v>20050211</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E23">
+        <v>20030115</v>
+      </c>
+      <c r="F23">
+        <v>20050211</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" t="s">
+        <v>634</v>
+      </c>
+      <c r="D24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E24">
+        <v>20081201</v>
+      </c>
+      <c r="F24">
+        <v>20101207</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B25" t="s">
+        <v>636</v>
+      </c>
+      <c r="C25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D25" t="s">
+        <v>570</v>
+      </c>
+      <c r="E25">
+        <v>20130905</v>
+      </c>
+      <c r="F25">
+        <v>20140912</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D26" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26">
+        <v>20131206</v>
+      </c>
+      <c r="F26">
+        <v>20140912</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B27" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" t="s">
+        <v>637</v>
+      </c>
+      <c r="D27" t="s">
+        <v>570</v>
+      </c>
+      <c r="E27">
+        <v>20130905</v>
+      </c>
+      <c r="F27">
+        <v>20140912</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>643</v>
+      </c>
+      <c r="B28" t="s">
+        <v>644</v>
+      </c>
+      <c r="C28" t="s">
+        <v>640</v>
+      </c>
+      <c r="D28" t="s">
+        <v>570</v>
+      </c>
+      <c r="E28">
+        <v>20131206</v>
+      </c>
+      <c r="F28">
+        <v>20140912</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>645</v>
+      </c>
+      <c r="B29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C29" t="s">
+        <v>637</v>
+      </c>
+      <c r="D29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E29">
+        <v>20130905</v>
+      </c>
+      <c r="F29">
+        <v>20140912</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>647</v>
+      </c>
+      <c r="B30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E30">
+        <v>20131206</v>
+      </c>
+      <c r="F30">
+        <v>20140912</v>
+      </c>
+      <c r="H30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>649</v>
+      </c>
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C31" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E31">
+        <v>20120905</v>
+      </c>
+      <c r="F31">
+        <v>20130913</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B32" t="s">
+        <v>653</v>
+      </c>
+      <c r="C32" t="s">
+        <v>640</v>
+      </c>
+      <c r="D32" t="s">
+        <v>570</v>
+      </c>
+      <c r="E32">
+        <v>20121206</v>
+      </c>
+      <c r="F32">
+        <v>20130913</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>654</v>
+      </c>
+      <c r="B33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C33" t="s">
+        <v>651</v>
+      </c>
+      <c r="D33" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33">
+        <v>20120905</v>
+      </c>
+      <c r="F33">
+        <v>20130913</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>656</v>
+      </c>
+      <c r="B34" t="s">
+        <v>657</v>
+      </c>
+      <c r="C34" t="s">
+        <v>640</v>
+      </c>
+      <c r="D34" t="s">
+        <v>570</v>
+      </c>
+      <c r="E34">
+        <v>20121206</v>
+      </c>
+      <c r="F34">
+        <v>20130913</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>658</v>
+      </c>
+      <c r="B35" t="s">
+        <v>659</v>
+      </c>
+      <c r="C35" t="s">
+        <v>651</v>
+      </c>
+      <c r="D35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35">
+        <v>20120905</v>
+      </c>
+      <c r="F35">
+        <v>20130913</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>660</v>
+      </c>
+      <c r="B36" t="s">
+        <v>661</v>
+      </c>
+      <c r="C36" t="s">
+        <v>640</v>
+      </c>
+      <c r="D36" t="s">
+        <v>570</v>
+      </c>
+      <c r="E36">
+        <v>20121206</v>
+      </c>
+      <c r="F36">
+        <v>20130913</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D326" sqref="D326"/>
+    <sheetView topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8738,10 +9045,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9028,7 +9335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9036,7 +9343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9044,7 +9351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9052,7 +9359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9060,7 +9367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9068,7 +9375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9076,7 +9383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9084,7 +9391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9092,7 +9399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9100,20 +9407,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -9122,6 +9440,682 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="13" max="13" width="52.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H2" t="s">
+        <v>700</v>
+      </c>
+      <c r="I2" t="s">
+        <v>701</v>
+      </c>
+      <c r="K2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="E3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H3" t="s">
+        <v>708</v>
+      </c>
+      <c r="I3" t="s">
+        <v>709</v>
+      </c>
+      <c r="K3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F4" t="s">
+        <v>714</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="H4" t="s">
+        <v>716</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="K4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D5" t="s">
+        <v>720</v>
+      </c>
+      <c r="E5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G5" t="s">
+        <v>723</v>
+      </c>
+      <c r="H5" t="s">
+        <v>724</v>
+      </c>
+      <c r="I5" t="s">
+        <v>725</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E6" t="s">
+        <v>728</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="H6" t="s">
+        <v>731</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F7" t="s">
+        <v>737</v>
+      </c>
+      <c r="G7" t="s">
+        <v>738</v>
+      </c>
+      <c r="H7" t="s">
+        <v>739</v>
+      </c>
+      <c r="I7" t="s">
+        <v>740</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" t="s">
+        <v>741</v>
+      </c>
+      <c r="D8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E8" t="s">
+        <v>743</v>
+      </c>
+      <c r="F8" t="s">
+        <v>737</v>
+      </c>
+      <c r="G8" t="s">
+        <v>744</v>
+      </c>
+      <c r="H8" t="s">
+        <v>745</v>
+      </c>
+      <c r="I8" t="s">
+        <v>740</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E9" t="s">
+        <v>743</v>
+      </c>
+      <c r="F9" t="s">
+        <v>737</v>
+      </c>
+      <c r="G9" t="s">
+        <v>744</v>
+      </c>
+      <c r="H9" t="s">
+        <v>747</v>
+      </c>
+      <c r="I9" t="s">
+        <v>740</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F10" t="s">
+        <v>737</v>
+      </c>
+      <c r="G10" t="s">
+        <v>738</v>
+      </c>
+      <c r="H10" t="s">
+        <v>750</v>
+      </c>
+      <c r="I10" t="s">
+        <v>697</v>
+      </c>
+      <c r="K10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C11" t="s">
+        <v>752</v>
+      </c>
+      <c r="D11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" t="s">
+        <v>755</v>
+      </c>
+      <c r="G11" t="s">
+        <v>729</v>
+      </c>
+      <c r="H11" t="s">
+        <v>756</v>
+      </c>
+      <c r="I11" t="s">
+        <v>697</v>
+      </c>
+      <c r="K11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>757</v>
+      </c>
+      <c r="D12" t="s">
+        <v>758</v>
+      </c>
+      <c r="E12" t="s">
+        <v>759</v>
+      </c>
+      <c r="F12" t="s">
+        <v>760</v>
+      </c>
+      <c r="G12" t="s">
+        <v>761</v>
+      </c>
+      <c r="H12" t="s">
+        <v>762</v>
+      </c>
+      <c r="I12" t="s">
+        <v>763</v>
+      </c>
+      <c r="K12" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C13" t="s">
+        <v>765</v>
+      </c>
+      <c r="D13" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" t="s">
+        <v>767</v>
+      </c>
+      <c r="F13" t="s">
+        <v>768</v>
+      </c>
+      <c r="G13" t="s">
+        <v>769</v>
+      </c>
+      <c r="H13" t="s">
+        <v>770</v>
+      </c>
+      <c r="I13" t="s">
+        <v>697</v>
+      </c>
+      <c r="K13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C14" t="s">
+        <v>772</v>
+      </c>
+      <c r="D14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E14" t="s">
+        <v>774</v>
+      </c>
+      <c r="F14" t="s">
+        <v>775</v>
+      </c>
+      <c r="G14" t="s">
+        <v>776</v>
+      </c>
+      <c r="H14" t="s">
+        <v>777</v>
+      </c>
+      <c r="I14" t="s">
+        <v>697</v>
+      </c>
+      <c r="K14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>779</v>
+      </c>
+      <c r="E15" t="s">
+        <v>780</v>
+      </c>
+      <c r="F15" t="s">
+        <v>781</v>
+      </c>
+      <c r="G15" t="s">
+        <v>769</v>
+      </c>
+      <c r="H15" t="s">
+        <v>782</v>
+      </c>
+      <c r="I15" t="s">
+        <v>697</v>
+      </c>
+      <c r="K15" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" t="s">
+        <v>784</v>
+      </c>
+      <c r="D16" t="s">
+        <v>785</v>
+      </c>
+      <c r="E16" t="s">
+        <v>786</v>
+      </c>
+      <c r="F16" t="s">
+        <v>787</v>
+      </c>
+      <c r="G16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I16" t="s">
+        <v>697</v>
+      </c>
+      <c r="K16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>791</v>
+      </c>
+      <c r="E17" t="s">
+        <v>792</v>
+      </c>
+      <c r="F17" t="s">
+        <v>793</v>
+      </c>
+      <c r="G17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H17" t="s">
+        <v>795</v>
+      </c>
+      <c r="I17" t="s">
+        <v>697</v>
+      </c>
+      <c r="K17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>796</v>
+      </c>
+      <c r="C18" t="s">
+        <v>796</v>
+      </c>
+      <c r="D18" t="s">
+        <v>797</v>
+      </c>
+      <c r="E18" t="s">
+        <v>798</v>
+      </c>
+      <c r="F18" t="s">
+        <v>799</v>
+      </c>
+      <c r="G18" t="s">
+        <v>800</v>
+      </c>
+      <c r="H18" t="s">
+        <v>801</v>
+      </c>
+      <c r="K18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>802</v>
+      </c>
+      <c r="C19" t="s">
+        <v>803</v>
+      </c>
+      <c r="D19" t="s">
+        <v>804</v>
+      </c>
+      <c r="E19" t="s">
+        <v>805</v>
+      </c>
+      <c r="F19" t="s">
+        <v>806</v>
+      </c>
+      <c r="G19" t="s">
+        <v>807</v>
+      </c>
+      <c r="H19" t="s">
+        <v>808</v>
+      </c>
+      <c r="I19" t="s">
+        <v>697</v>
+      </c>
+      <c r="K19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>813</v>
+      </c>
+      <c r="M20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>809</v>
+      </c>
+      <c r="E27" t="s">
+        <v>810</v>
+      </c>
+      <c r="F27" t="s">
+        <v>811</v>
+      </c>
+      <c r="G27" t="s">
+        <v>812</v>
+      </c>
+      <c r="I27" t="s">
+        <v>814</v>
+      </c>
+      <c r="K27" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -9529,59 +10523,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -9589,996 +10583,157 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="78.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E2">
-        <v>20140214</v>
-      </c>
-      <c r="F2">
-        <v>20151212</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3">
-        <v>20150720</v>
-      </c>
-      <c r="F3">
-        <v>20151212</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>571</v>
-      </c>
-      <c r="B4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E4">
-        <v>20130916</v>
-      </c>
-      <c r="F4">
-        <v>20140320</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E5">
-        <v>20140101</v>
-      </c>
-      <c r="F5">
-        <v>20140320</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D6" t="s">
-        <v>570</v>
-      </c>
-      <c r="E6">
-        <v>20140220</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>666</v>
-      </c>
-      <c r="K6" t="s">
-        <v>579</v>
-      </c>
-      <c r="L6">
-        <v>20140320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B7" t="s">
-        <v>581</v>
-      </c>
-      <c r="C7" t="s">
-        <v>582</v>
-      </c>
-      <c r="D7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7">
-        <v>20111215</v>
-      </c>
-      <c r="F7">
-        <v>20121112</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C8" t="s">
-        <v>585</v>
-      </c>
-      <c r="D8" t="s">
-        <v>570</v>
-      </c>
-      <c r="E8">
-        <v>20120210</v>
-      </c>
-      <c r="F8">
-        <v>20121112</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>586</v>
-      </c>
-      <c r="B9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E9">
-        <v>20120620</v>
-      </c>
-      <c r="F9">
-        <v>20121112</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>589</v>
-      </c>
-      <c r="B10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C10" t="s">
-        <v>591</v>
-      </c>
-      <c r="D10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E10">
-        <v>20111215</v>
-      </c>
-      <c r="F10">
-        <v>20121112</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D11" t="s">
-        <v>570</v>
-      </c>
-      <c r="E11">
-        <v>20120210</v>
-      </c>
-      <c r="F11">
-        <v>20121112</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B12" t="s">
-        <v>596</v>
-      </c>
-      <c r="C12" t="s">
-        <v>597</v>
-      </c>
-      <c r="D12" t="s">
-        <v>570</v>
-      </c>
-      <c r="E12">
-        <v>20120620</v>
-      </c>
-      <c r="F12">
-        <v>20121112</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>598</v>
-      </c>
-      <c r="B13" t="s">
-        <v>599</v>
-      </c>
-      <c r="C13" t="s">
-        <v>600</v>
-      </c>
-      <c r="D13" t="s">
-        <v>566</v>
-      </c>
-      <c r="E13">
-        <v>20111215</v>
-      </c>
-      <c r="F13">
-        <v>20121112</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B14" t="s">
-        <v>602</v>
-      </c>
-      <c r="C14" t="s">
-        <v>603</v>
-      </c>
-      <c r="D14" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14">
-        <v>20120210</v>
-      </c>
-      <c r="F14">
-        <v>20121112</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>604</v>
-      </c>
-      <c r="B15" t="s">
-        <v>605</v>
-      </c>
-      <c r="C15" t="s">
-        <v>606</v>
-      </c>
-      <c r="D15" t="s">
-        <v>570</v>
-      </c>
-      <c r="E15">
-        <v>20120620</v>
-      </c>
-      <c r="F15">
-        <v>20121112</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>607</v>
-      </c>
-      <c r="B16" t="s">
-        <v>608</v>
-      </c>
-      <c r="C16" t="s">
-        <v>609</v>
-      </c>
-      <c r="D16" t="s">
-        <v>570</v>
-      </c>
-      <c r="E16">
-        <v>20130105</v>
-      </c>
-      <c r="F16">
-        <v>20140530</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>610</v>
-      </c>
-      <c r="B17" t="s">
-        <v>611</v>
-      </c>
-      <c r="C17" t="s">
-        <v>612</v>
-      </c>
-      <c r="D17" t="s">
-        <v>570</v>
-      </c>
-      <c r="E17">
-        <v>20140110</v>
-      </c>
-      <c r="F17">
-        <v>20140530</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" t="s">
-        <v>614</v>
-      </c>
-      <c r="C18" t="s">
-        <v>615</v>
-      </c>
-      <c r="D18" t="s">
-        <v>570</v>
-      </c>
-      <c r="E18">
-        <v>20130105</v>
-      </c>
-      <c r="F18">
-        <v>20140530</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>616</v>
-      </c>
-      <c r="B19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C19" t="s">
-        <v>618</v>
-      </c>
-      <c r="D19" t="s">
-        <v>570</v>
-      </c>
-      <c r="E19">
-        <v>20140110</v>
-      </c>
-      <c r="F19">
-        <v>20140530</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>619</v>
-      </c>
-      <c r="B20" t="s">
-        <v>620</v>
-      </c>
-      <c r="C20" t="s">
-        <v>621</v>
-      </c>
-      <c r="D20" t="s">
-        <v>570</v>
-      </c>
-      <c r="E20">
-        <v>20130105</v>
-      </c>
-      <c r="F20">
-        <v>20140530</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>623</v>
-      </c>
-      <c r="B21" t="s">
-        <v>624</v>
-      </c>
-      <c r="C21" t="s">
-        <v>625</v>
-      </c>
-      <c r="D21" t="s">
-        <v>570</v>
-      </c>
-      <c r="E21">
-        <v>20140110</v>
-      </c>
-      <c r="F21">
-        <v>20140530</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>626</v>
-      </c>
-      <c r="B22" t="s">
-        <v>627</v>
-      </c>
-      <c r="C22" t="s">
-        <v>628</v>
-      </c>
-      <c r="D22" t="s">
-        <v>566</v>
-      </c>
-      <c r="E22">
-        <v>20001103</v>
-      </c>
-      <c r="F22">
-        <v>20050211</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>629</v>
-      </c>
-      <c r="B23" t="s">
-        <v>630</v>
-      </c>
-      <c r="C23" t="s">
-        <v>631</v>
-      </c>
-      <c r="D23" t="s">
-        <v>570</v>
-      </c>
-      <c r="E23">
-        <v>20030115</v>
-      </c>
-      <c r="F23">
-        <v>20050211</v>
-      </c>
-      <c r="H23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>632</v>
-      </c>
-      <c r="B24" t="s">
-        <v>633</v>
-      </c>
-      <c r="C24" t="s">
-        <v>634</v>
-      </c>
-      <c r="D24" t="s">
-        <v>570</v>
-      </c>
-      <c r="E24">
-        <v>20081201</v>
-      </c>
-      <c r="F24">
-        <v>20101207</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>635</v>
-      </c>
-      <c r="B25" t="s">
-        <v>636</v>
-      </c>
-      <c r="C25" t="s">
-        <v>637</v>
-      </c>
-      <c r="D25" t="s">
-        <v>570</v>
-      </c>
-      <c r="E25">
-        <v>20130905</v>
-      </c>
-      <c r="F25">
-        <v>20140912</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>638</v>
-      </c>
-      <c r="B26" t="s">
-        <v>639</v>
-      </c>
-      <c r="C26" t="s">
-        <v>640</v>
-      </c>
-      <c r="D26" t="s">
-        <v>570</v>
-      </c>
-      <c r="E26">
-        <v>20131206</v>
-      </c>
-      <c r="F26">
-        <v>20140912</v>
-      </c>
-      <c r="H26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>641</v>
-      </c>
-      <c r="B27" t="s">
-        <v>642</v>
-      </c>
-      <c r="C27" t="s">
-        <v>637</v>
-      </c>
-      <c r="D27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E27">
-        <v>20130905</v>
-      </c>
-      <c r="F27">
-        <v>20140912</v>
-      </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>643</v>
-      </c>
-      <c r="B28" t="s">
-        <v>644</v>
-      </c>
-      <c r="C28" t="s">
-        <v>640</v>
-      </c>
-      <c r="D28" t="s">
-        <v>570</v>
-      </c>
-      <c r="E28">
-        <v>20131206</v>
-      </c>
-      <c r="F28">
-        <v>20140912</v>
-      </c>
-      <c r="H28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>645</v>
-      </c>
-      <c r="B29" t="s">
-        <v>646</v>
-      </c>
-      <c r="C29" t="s">
-        <v>637</v>
-      </c>
-      <c r="D29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E29">
-        <v>20130905</v>
-      </c>
-      <c r="F29">
-        <v>20140912</v>
-      </c>
-      <c r="H29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B30" t="s">
-        <v>648</v>
-      </c>
-      <c r="C30" t="s">
-        <v>640</v>
-      </c>
-      <c r="D30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E30">
-        <v>20131206</v>
-      </c>
-      <c r="F30">
-        <v>20140912</v>
-      </c>
-      <c r="H30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>649</v>
-      </c>
-      <c r="B31" t="s">
-        <v>650</v>
-      </c>
-      <c r="C31" t="s">
-        <v>651</v>
-      </c>
-      <c r="D31" t="s">
-        <v>570</v>
-      </c>
-      <c r="E31">
-        <v>20120905</v>
-      </c>
-      <c r="F31">
-        <v>20130913</v>
-      </c>
-      <c r="H31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>652</v>
-      </c>
-      <c r="B32" t="s">
-        <v>653</v>
-      </c>
-      <c r="C32" t="s">
-        <v>640</v>
-      </c>
-      <c r="D32" t="s">
-        <v>570</v>
-      </c>
-      <c r="E32">
-        <v>20121206</v>
-      </c>
-      <c r="F32">
-        <v>20130913</v>
-      </c>
-      <c r="H32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>654</v>
-      </c>
-      <c r="B33" t="s">
-        <v>655</v>
-      </c>
-      <c r="C33" t="s">
-        <v>651</v>
-      </c>
-      <c r="D33" t="s">
-        <v>570</v>
-      </c>
-      <c r="E33">
-        <v>20120905</v>
-      </c>
-      <c r="F33">
-        <v>20130913</v>
-      </c>
-      <c r="H33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>656</v>
-      </c>
-      <c r="B34" t="s">
-        <v>657</v>
-      </c>
-      <c r="C34" t="s">
-        <v>640</v>
-      </c>
-      <c r="D34" t="s">
-        <v>570</v>
-      </c>
-      <c r="E34">
-        <v>20121206</v>
-      </c>
-      <c r="F34">
-        <v>20130913</v>
-      </c>
-      <c r="H34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>658</v>
-      </c>
-      <c r="B35" t="s">
-        <v>659</v>
-      </c>
-      <c r="C35" t="s">
-        <v>651</v>
-      </c>
-      <c r="D35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E35">
-        <v>20120905</v>
-      </c>
-      <c r="F35">
-        <v>20130913</v>
-      </c>
-      <c r="H35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>660</v>
-      </c>
-      <c r="B36" t="s">
-        <v>661</v>
-      </c>
-      <c r="C36" t="s">
-        <v>640</v>
-      </c>
-      <c r="D36" t="s">
-        <v>570</v>
-      </c>
-      <c r="E36">
-        <v>20121206</v>
-      </c>
-      <c r="F36">
-        <v>20130913</v>
-      </c>
-      <c r="H36">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="1"/>
+    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="B tblJeu" sheetId="6" r:id="rId8"/>
     <sheet name="C tblPlateformeSysExp" sheetId="16" r:id="rId9"/>
     <sheet name="B tblThemeJeu" sheetId="7" r:id="rId10"/>
-    <sheet name="tblVersion" sheetId="10" r:id="rId11"/>
-    <sheet name="tblJeuSemblable" sheetId="12" r:id="rId12"/>
+    <sheet name="B tblVersion" sheetId="10" r:id="rId11"/>
+    <sheet name="B tblJeuSemblable" sheetId="12" r:id="rId12"/>
     <sheet name="B tblPlateformeJeu" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="820">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2488,6 +2488,9 @@
   </si>
   <si>
     <t>IdSysExp</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3016,7 +3019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5644,10 +5647,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6027,6 +6030,11 @@
       </c>
       <c r="C46" s="13"/>
     </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6037,7 +6045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="12"/>
+    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="821">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2491,6 +2491,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Lieu Caraïbes Plage</t>
   </si>
 </sst>
 </file>
@@ -3019,7 +3022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5649,7 +5652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -6136,8 +6139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7785,7 +7788,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>368</v>
+        <v>820</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">

--- a/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="2"/>
+    <workbookView xWindow="12228" yWindow="12" windowWidth="10800" windowHeight="9348" tabRatio="861" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
@@ -4472,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4506,18 +4506,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4525,7 +4525,7 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4533,7 +4533,7 @@
         <v>288</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
         <v>128</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4549,23 +4549,23 @@
         <v>288</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4573,39 +4573,39 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
         <v>296</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4621,7 +4621,7 @@
         <v>296</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4629,7 +4629,7 @@
         <v>296</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4637,22 +4637,6 @@
         <v>296</v>
       </c>
       <c r="B20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>296</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>296</v>
-      </c>
-      <c r="B22">
         <v>16</v>
       </c>
     </row>
@@ -6139,7 +6123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
@@ -10131,7 +10115,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J13"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
